--- a/src/test/resources/testCheck.xlsx
+++ b/src/test/resources/testCheck.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nombre</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>53678541Z</t>
-  </si>
-  <si>
-    <t>Jorge Riopedre Vega</t>
   </si>
   <si>
     <t>48976526C</t>
@@ -379,7 +376,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,7 +387,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +418,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>350</v>
@@ -435,21 +432,18 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>220</v>

--- a/src/test/resources/testCheck.xlsx
+++ b/src/test/resources/testCheck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="3690"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="4155"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>Ignacio Fernández Fernández</t>
   </si>
   <si>
-    <t>56378435A</t>
-  </si>
-  <si>
     <t>Naucé López González</t>
   </si>
   <si>
@@ -49,13 +46,16 @@
     <t>48976526C</t>
   </si>
   <si>
-    <t>ignaciouniovi.es</t>
-  </si>
-  <si>
-    <t>nauceuniovi.es</t>
-  </si>
-  <si>
-    <t>jorgeuniovi.es</t>
+    <t>ignacio@uniovi.es</t>
+  </si>
+  <si>
+    <t>nauce@uniovi.es</t>
+  </si>
+  <si>
+    <t>jorge@uniovi.es</t>
+  </si>
+  <si>
+    <t>56378435Q</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -387,7 +387,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,35 +415,35 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>350</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>440</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>220</v>
@@ -451,9 +451,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="ignacio@uniovi.es"/>
-    <hyperlink ref="C3" r:id="rId2" display="nauce@uniovi.es"/>
-    <hyperlink ref="C4" r:id="rId3" display="jorge@uniovi.es"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testCheck.xlsx
+++ b/src/test/resources/testCheck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="4155"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="5070"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nombre</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>56378435Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -387,7 +390,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +442,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>

--- a/src/test/resources/testCheck.xlsx
+++ b/src/test/resources/testCheck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="5070"/>
+    <workbookView xWindow="-1455" yWindow="945" windowWidth="15030" windowHeight="4815"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nombre</t>
   </si>
@@ -34,31 +34,37 @@
     <t>Colegio</t>
   </si>
   <si>
-    <t>Ignacio Fernández Fernández</t>
-  </si>
-  <si>
-    <t>Naucé López González</t>
-  </si>
-  <si>
-    <t>53678541Z</t>
-  </si>
-  <si>
-    <t>48976526C</t>
-  </si>
-  <si>
-    <t>ignacio@uniovi.es</t>
-  </si>
-  <si>
-    <t>nauce@uniovi.es</t>
-  </si>
-  <si>
-    <t>jorge@uniovi.es</t>
-  </si>
-  <si>
-    <t>56378435Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
+    <t>Wwww</t>
+  </si>
+  <si>
+    <t>Yyyy</t>
+  </si>
+  <si>
+    <t>Zzzz</t>
+  </si>
+  <si>
+    <t>12349876W</t>
+  </si>
+  <si>
+    <t>12349786Y</t>
+  </si>
+  <si>
+    <t>12349687Z</t>
+  </si>
+  <si>
+    <t>yy@uniovi.es</t>
+  </si>
+  <si>
+    <t>wwuniovi.es</t>
+  </si>
+  <si>
+    <t>Mmmm</t>
+  </si>
+  <si>
+    <t>13245678M</t>
+  </si>
+  <si>
+    <t>mm@uniovies.</t>
   </si>
 </sst>
 </file>
@@ -379,7 +385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -387,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,10 +424,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>19</v>
@@ -432,34 +438,46 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>-4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>220</v>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="ww@uniovi.es"/>
     <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
